--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>MODELO</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>ARIMAX</t>
+  </si>
+  <si>
+    <t>pm25</t>
+  </si>
+  <si>
+    <t>so2</t>
   </si>
 </sst>
 </file>
@@ -52,8 +58,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,8 +121,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -398,68 +404,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>28.2222312516</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.0948989999999998</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.3124599999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>32.086378986256001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.3006510000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.6644839999999999</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <f>D3^2</f>
+        <v>28.222231251599997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.0948989999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.3124599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>D4*D4</f>
+        <v>32.086378986256001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.3006510000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6644839999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>23.775444264049</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B5" s="1">
+        <f>D5*D5</f>
+        <v>23.775444264049003</v>
+      </c>
+      <c r="C5" s="1">
         <v>3.7170830000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>4.8760070000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>68.624805112081006</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.4573219999999996</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.2840089999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>71.423930807823993</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.6786459999999996</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.4512680000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>59.057257656384003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1879109999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.6848720000000004</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -57,9 +57,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,12 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A8" sqref="A8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,16 +418,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -439,7 +439,7 @@
         <f>D3^2</f>
         <v>28.222231251599997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>4.0948989999999998</v>
       </c>
       <c r="D3" s="3">
@@ -450,14 +450,14 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f>D4*D4</f>
         <v>32.086378986256001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>4.3006510000000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>5.6644839999999999</v>
       </c>
     </row>
@@ -465,33 +465,41 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f>D5*D5</f>
         <v>23.775444264049003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3.7170830000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>4.8760070000000004</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -499,10 +507,10 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>68.624805112081006</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5.4573219999999996</v>
       </c>
       <c r="D9" s="3">
@@ -513,13 +521,13 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>71.423930807823993</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>5.6786459999999996</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>8.4512680000000007</v>
       </c>
     </row>
@@ -527,13 +535,13 @@
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>59.057257656384003</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>5.1879109999999997</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>7.6848720000000004</v>
       </c>
     </row>
